--- a/sample.xlsx
+++ b/sample.xlsx
@@ -7,7 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -477,7 +479,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -486,10 +488,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -505,7 +507,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -514,10 +516,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -533,7 +535,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -542,10 +544,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -561,7 +563,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -570,10 +572,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -589,7 +591,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -598,10 +600,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -617,7 +619,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -626,10 +628,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -645,7 +647,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -654,10 +656,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -673,7 +675,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -682,10 +684,10 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -701,25 +703,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -729,7 +731,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -738,10 +740,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -757,7 +759,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -766,10 +768,10 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -785,7 +787,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -794,10 +796,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -813,7 +815,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -822,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -841,7 +843,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -850,10 +852,10 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -869,7 +871,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -878,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -897,7 +899,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -906,10 +908,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -925,7 +927,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -934,10 +936,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -953,7 +955,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -962,10 +964,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -981,25 +983,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1009,7 +1011,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1018,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1037,7 +1039,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -1046,10 +1048,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1061,11 +1063,11 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>19:30,</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1074,10 +1076,10 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1093,7 +1095,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -1102,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1121,25 +1123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1149,7 +1151,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -1158,10 +1160,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1177,7 +1179,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -1186,10 +1188,10 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -1205,7 +1207,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -1214,10 +1216,1634 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>SUN</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>MON</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>TUE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>WED</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>THU</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>FRI</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>SAT</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>9:00</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>9:30</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>SUN</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>MON</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>TUE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>WED</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>THU</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>FRI</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>SAT</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>9:00</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>9:30</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -479,22 +479,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -507,22 +507,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -535,22 +535,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -563,22 +563,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -619,22 +619,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -647,22 +647,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -675,22 +675,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -703,22 +703,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -731,22 +731,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -759,22 +759,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -787,22 +787,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -815,22 +815,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -843,22 +843,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -871,22 +871,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -927,22 +927,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -983,22 +983,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1011,22 +1011,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1039,22 +1039,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1067,22 +1067,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1095,22 +1095,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1123,22 +1123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1151,22 +1151,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1179,22 +1179,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1294,22 +1294,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1322,22 +1322,22 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1350,22 +1350,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1378,22 +1378,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -1406,22 +1406,22 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -1434,22 +1434,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1462,22 +1462,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1490,22 +1490,22 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1518,22 +1518,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1546,22 +1546,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1574,22 +1574,22 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1602,22 +1602,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1630,22 +1630,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1658,22 +1658,22 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1686,22 +1686,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1714,22 +1714,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1742,22 +1742,22 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1770,22 +1770,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1798,22 +1798,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1826,22 +1826,22 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1854,22 +1854,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1882,22 +1882,22 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1910,22 +1910,22 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1938,22 +1938,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1966,22 +1966,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1994,22 +1994,22 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -2022,22 +2022,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2103,22 +2103,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -2159,22 +2159,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -2187,22 +2187,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -2215,22 +2215,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -2243,22 +2243,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -2271,22 +2271,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -2299,22 +2299,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -2327,22 +2327,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -2355,22 +2355,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -2383,22 +2383,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -2411,22 +2411,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -2439,22 +2439,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -2467,22 +2467,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -2495,22 +2495,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -2523,22 +2523,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -2551,22 +2551,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -2579,22 +2579,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2607,22 +2607,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2635,22 +2635,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2663,22 +2663,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2691,22 +2691,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2719,22 +2719,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2747,22 +2747,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2775,22 +2775,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2803,22 +2803,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2831,22 +2831,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -479,22 +479,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>1</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -507,22 +507,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
         <v>1</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -535,22 +535,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
         <v>1</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -563,22 +563,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>1</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
         <v>1</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -619,22 +619,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -647,22 +647,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -675,10 +675,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -687,10 +687,10 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -703,22 +703,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -731,22 +731,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -759,22 +759,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -787,22 +787,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -815,22 +815,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -843,22 +843,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -871,22 +871,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -927,22 +927,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -983,22 +983,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1011,22 +1011,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1039,22 +1039,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1067,22 +1067,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1095,22 +1095,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1123,22 +1123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1151,22 +1151,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1179,22 +1179,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1294,22 +1294,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1322,22 +1322,22 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1350,22 +1350,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1378,22 +1378,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1406,22 +1406,22 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1434,22 +1434,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1462,22 +1462,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1490,22 +1490,22 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1518,22 +1518,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1546,22 +1546,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1574,22 +1574,22 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1602,22 +1602,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1630,22 +1630,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1658,22 +1658,22 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1686,22 +1686,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1714,22 +1714,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1742,22 +1742,22 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1770,22 +1770,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1798,22 +1798,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1826,22 +1826,22 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1854,22 +1854,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1882,22 +1882,22 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1910,22 +1910,22 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1938,22 +1938,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1966,22 +1966,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1994,22 +1994,22 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2022,22 +2022,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2103,22 +2103,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -2159,22 +2159,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -2187,22 +2187,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -2215,22 +2215,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -2243,22 +2243,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -2271,22 +2271,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -2299,22 +2299,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -2327,22 +2327,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -2355,22 +2355,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -2383,22 +2383,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -2411,22 +2411,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -2439,22 +2439,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -2467,22 +2467,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -2495,22 +2495,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -2523,22 +2523,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -2551,22 +2551,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -2579,22 +2579,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2607,22 +2607,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2635,22 +2635,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2663,22 +2663,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2691,22 +2691,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2719,22 +2719,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2747,22 +2747,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2775,22 +2775,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2803,22 +2803,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2831,22 +2831,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
